--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,20 +4,94 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello world.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>我的名字</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>我的年龄</t>
+  </si>
+  <si>
+    <t>当前状态</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>测试9</t>
+  </si>
+  <si>
+    <t>测试15</t>
+  </si>
+  <si>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>测试17</t>
+  </si>
+  <si>
+    <t>测试18</t>
+  </si>
+  <si>
+    <t>测试19</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>2020-12-09 11:53:37</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -333,27 +407,686 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="true" ht="15" r="1"/>
+    <row customHeight="true" ht="15" r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row customHeight="true" ht="15" r="2">
-      <c r="B2">
-        <v>100</v>
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
       </c>
     </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row customHeight="true" ht="15" r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="15" r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
